--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3563.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3563.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155315239167602</v>
+        <v>0.7985977530479431</v>
       </c>
       <c r="B1">
-        <v>1.415084808825996</v>
+        <v>2.468005895614624</v>
       </c>
       <c r="C1">
-        <v>1.958571641445812</v>
+        <v>1.424812436103821</v>
       </c>
       <c r="D1">
-        <v>4.996864075730673</v>
+        <v>1.045518159866333</v>
       </c>
       <c r="E1">
-        <v>3.36506437454542</v>
+        <v>1.212092280387878</v>
       </c>
     </row>
   </sheetData>
